--- a/data/trans_camb/P74B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Estudios-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.846663180499038</v>
+        <v>2.722520649941799</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.867306494950456</v>
+        <v>2.030072384649604</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.7480440397645</v>
+        <v>-13.04764115745722</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-14.08890584943389</v>
+        <v>-14.13526995484547</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2893451287826387</v>
+        <v>0.5418526667344209</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5802892572277467</v>
+        <v>0.5675160423095037</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.43374384111907</v>
+        <v>11.15548902010714</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.16798731203787</v>
+        <v>10.78323052124384</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.918560904063444</v>
+        <v>-3.973173916126867</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-4.436692504909719</v>
+        <v>-4.468161188492471</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.107757231343696</v>
+        <v>9.017731600221209</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.87910707114175</v>
+        <v>9.606605356654669</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.180505935595384</v>
+        <v>0.1762336315187701</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1055912477370794</v>
+        <v>0.1285904318834782</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1412854337316833</v>
+        <v>-0.1439877555807492</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1580642562255694</v>
+        <v>-0.1559608705273862</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.005882508551579943</v>
+        <v>0.01123901326317681</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01144590036722286</v>
+        <v>0.01188527720261703</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.053133687770944</v>
+        <v>0.974234869997977</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9679251001754657</v>
+        <v>0.9298791497936445</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.04583990856390154</v>
+        <v>-0.04583468948778464</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.05384127781859143</v>
+        <v>-0.05170866545565345</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2104086654657449</v>
+        <v>0.2094807264454524</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2269588250665227</v>
+        <v>0.2193110223432186</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.652882408312664</v>
+        <v>1.971048198993524</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.454684368409246</v>
+        <v>3.332683461861648</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-24.93382161212744</v>
+        <v>-25.29271577112035</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-19.16393048131362</v>
+        <v>-19.94161476616567</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.680568470431609</v>
+        <v>2.604449649012544</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.628372552633412</v>
+        <v>6.697870490251935</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.673667855834323</v>
+        <v>6.827757911952638</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.52619495092851</v>
+        <v>8.170553140227668</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.615226036975641</v>
+        <v>-4.791936065537768</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1755958577171491</v>
+        <v>-0.847423211225933</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.947044313561133</v>
+        <v>9.774323842855345</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>13.83744432845815</v>
+        <v>13.79525460686973</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3699465709149616</v>
+        <v>0.4725429190659962</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.7567863154858273</v>
+        <v>0.8113793929731951</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3625410325593324</v>
+        <v>-0.3686404774585793</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2736671707945074</v>
+        <v>-0.2829671209642577</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.173791973151347</v>
+        <v>0.1734163248074283</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4351858377970225</v>
+        <v>0.429503733946092</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.60124290655118</v>
+        <v>3.618651714775366</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4.289872739456601</v>
+        <v>4.359975430600222</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.0851592968819324</v>
+        <v>-0.08653397185931246</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.004041398548019445</v>
+        <v>-0.01596066778132989</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8355140396883344</v>
+        <v>0.8311790363290027</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.231577851800955</v>
+        <v>1.198898104979863</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.784690857743573</v>
+        <v>-1.999141102086637</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.66312420591543</v>
+        <v>0.1280976682435957</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-46.61966131254129</v>
+        <v>-45.9463552077842</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-54.60492787718317</v>
+        <v>-53.0154927450786</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7992894314785673</v>
+        <v>0.8627364656748491</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.2691689744348953</v>
+        <v>-0.6557563594336027</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.65666836500771</v>
+        <v>15.32944972398382</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.85313465088399</v>
+        <v>14.63173051824911</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.6552300689349173</v>
+        <v>0.378408257149108</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-11.243163015438</v>
+        <v>-11.51368918406705</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>19.98641180087975</v>
+        <v>20.61089051662137</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.61507479377374</v>
+        <v>16.14715156088917</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3785404301083403</v>
+        <v>-0.3035307405095927</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.01921115901069394</v>
+        <v>-0.06629449868639546</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5195850654061809</v>
+        <v>-0.5003943237471632</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6058865433488992</v>
+        <v>-0.5834409364135623</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02108220544384362</v>
+        <v>0.03862415677810317</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.02310820554222415</v>
+        <v>-0.03975763110233568</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>4.066206965725908</v>
+        <v>4.56715442750499</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.516515375886606</v>
+        <v>4.56069710430405</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.02336451353881146</v>
+        <v>-0.009962700585704136</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.1909311007933297</v>
+        <v>-0.173885643271807</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.89408913385877</v>
+        <v>1.915992088890691</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.550129325713008</v>
+        <v>1.485897578541953</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.624739483889546</v>
+        <v>2.738096591654836</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.74347086117012</v>
+        <v>2.629556119326222</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-19.4782350497656</v>
+        <v>-19.18628273635657</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-20.99589836242614</v>
+        <v>-21.14988799357861</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.900355451947492</v>
+        <v>1.540311795655427</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4769776036839533</v>
+        <v>0.8178672542062544</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.493434365150035</v>
+        <v>7.483991749093743</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.290676764232755</v>
+        <v>7.332937787900883</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-10.16093471205363</v>
+        <v>-10.60902133358553</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-12.01799041760167</v>
+        <v>-11.96990297880286</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.457510951516963</v>
+        <v>7.538663864363417</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.423208504537639</v>
+        <v>6.419255695425019</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3012168285802676</v>
+        <v>0.3131619080354042</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2965715025910012</v>
+        <v>0.3066248481209271</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2314411099316071</v>
+        <v>-0.2247801865012078</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2492791958472301</v>
+        <v>-0.2483214627923149</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.05873511422840336</v>
+        <v>0.04784518735672303</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01458818903926592</v>
+        <v>0.02616154598351637</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.110648846037371</v>
+        <v>1.149173955779367</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.067727645691364</v>
+        <v>1.116100651764723</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1265163409869503</v>
+        <v>-0.1304705232653952</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1495599289368651</v>
+        <v>-0.1489598537435011</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2560902365398393</v>
+        <v>0.262397245192574</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2259829261589818</v>
+        <v>0.2215868446293979</v>
       </c>
     </row>
     <row r="28">
